--- a/public/监测点信息.xlsx
+++ b/public/监测点信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12000"/>
+    <workbookView windowWidth="28060" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="入侵" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>序号</t>
   </si>
@@ -64,6 +64,9 @@
     <t>地类</t>
   </si>
   <si>
+    <t>简称</t>
+  </si>
+  <si>
     <t>紫茎泽兰</t>
   </si>
   <si>
@@ -76,12 +79,18 @@
     <t>牧草地</t>
   </si>
   <si>
+    <t>灵官箐村</t>
+  </si>
+  <si>
     <t>关岭县上关镇冬足村</t>
   </si>
   <si>
     <t>宜林荒山荒地</t>
   </si>
   <si>
+    <t>冬足村</t>
+  </si>
+  <si>
     <t>空心莲子草</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>水域（湿地）</t>
   </si>
   <si>
+    <t>草海湿地</t>
+  </si>
+  <si>
     <t>湄潭县永兴茶场</t>
   </si>
   <si>
@@ -100,6 +112,9 @@
     <t>耕地（有部分水域）</t>
   </si>
   <si>
+    <t>永兴茶场</t>
+  </si>
+  <si>
     <t>水白菜、凤眼蓝</t>
   </si>
   <si>
@@ -109,27 +124,45 @@
     <t>水域</t>
   </si>
   <si>
+    <t>白市水域</t>
+  </si>
+  <si>
     <t>清水江锦屏县三板溪水库</t>
   </si>
   <si>
+    <t>三板溪水库</t>
+  </si>
+  <si>
     <t>镇远县舞阳河羊坪水域</t>
   </si>
   <si>
+    <t>河羊坪水域</t>
+  </si>
+  <si>
     <t>水城县猴场乡猕猴桃园区</t>
   </si>
   <si>
     <t>耕地</t>
   </si>
   <si>
+    <t>猴场乡</t>
+  </si>
+  <si>
     <t>贵阳乌当谷定村</t>
   </si>
   <si>
+    <t>定谷村</t>
+  </si>
+  <si>
     <t>福寿螺</t>
   </si>
   <si>
     <t>贵阳市阿哈湖水库</t>
   </si>
   <si>
+    <t>阿哈水库</t>
+  </si>
+  <si>
     <t>金沙县官田乡官田村</t>
   </si>
   <si>
@@ -139,6 +172,9 @@
     <t>水田、农地、沟渠</t>
   </si>
   <si>
+    <t>官田村</t>
+  </si>
+  <si>
     <t>石阡县中坝镇河西村</t>
   </si>
   <si>
@@ -148,7 +184,13 @@
     <t>水田、河流、农地</t>
   </si>
   <si>
+    <t>河西村</t>
+  </si>
+  <si>
     <t>平塘县卡蒲乡场河村</t>
+  </si>
+  <si>
+    <t>场河村</t>
   </si>
   <si>
     <r>
@@ -183,13 +225,19 @@
     <t>旱地、荒山、高速路</t>
   </si>
   <si>
+    <t>岩架镇</t>
+  </si>
+  <si>
     <t>毕节市七星关区小吉场</t>
   </si>
   <si>
     <t>水田、旱地、荒山、村落</t>
   </si>
   <si>
-    <t>原生境保护区名称</t>
+    <t>小吉场</t>
+  </si>
+  <si>
+    <t>保护区名称</t>
   </si>
   <si>
     <t>位置及地名</t>
@@ -216,6 +264,9 @@
     <t>四球茶</t>
   </si>
   <si>
+    <t>青山普镇</t>
+  </si>
+  <si>
     <t>江口县野生兰花原生境保护区</t>
   </si>
   <si>
@@ -225,6 +276,9 @@
     <t>兰花</t>
   </si>
   <si>
+    <t>快场村</t>
+  </si>
+  <si>
     <t>荔波县野生桑猕猴桃兰花原生境保护区</t>
   </si>
   <si>
@@ -234,16 +288,28 @@
     <t>长穗桑、猕猴桃、兰花</t>
   </si>
   <si>
+    <t>尧古村</t>
+  </si>
+  <si>
     <t>荔波县小七孔镇地莪村</t>
   </si>
   <si>
+    <t>地莪村</t>
+  </si>
+  <si>
     <t>纳雍</t>
   </si>
   <si>
     <t>猕猴桃</t>
   </si>
   <si>
+    <t>纳雍(猕猴桃)</t>
+  </si>
+  <si>
     <t>云贵水韭</t>
+  </si>
+  <si>
+    <t>纳雍(云贵水韭)</t>
   </si>
 </sst>
 </file>
@@ -252,8 +318,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -297,22 +363,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,6 +379,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,8 +446,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,42 +484,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -395,51 +506,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -462,43 +528,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,37 +678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,73 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,15 +771,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -731,10 +788,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -757,9 +812,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,177 +868,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,13 +1383,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.66071428571429" customWidth="1"/>
     <col min="2" max="2" width="8.33035714285714" customWidth="1"/>
@@ -1331,7 +1397,7 @@
     <col min="7" max="7" width="9.66071428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.75" spans="1:7">
+    <row r="1" ht="28.75" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1353,8 +1419,11 @@
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="14" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:8">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1362,22 +1431,25 @@
         <v>522324001</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10">
         <v>1255.45</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="28" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="28" spans="1:8">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1385,22 +1457,25 @@
         <v>520424001</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="10">
         <v>1773.96</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="28" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="28" spans="1:8">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1408,22 +1483,25 @@
         <v>522427001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10">
         <v>66963.58</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="28" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="28" spans="1:8">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1431,22 +1509,25 @@
         <v>520328001</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10">
         <v>1007.67</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="28" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="28" spans="1:8">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1454,22 +1535,25 @@
         <v>522627001</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10">
         <v>1836.66</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:8">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1477,22 +1561,25 @@
         <v>522628001</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10">
         <v>7233.3</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="14" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="14" spans="1:8">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1500,22 +1587,25 @@
         <v>522625001</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" s="10">
         <v>1730.45</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="14" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="14" spans="1:8">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1523,22 +1613,25 @@
         <v>520221001</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E9" s="10">
         <v>1916.94</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" ht="14" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="14" spans="1:8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -1546,22 +1639,25 @@
         <v>520112001</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E10" s="10">
         <v>2367.49</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" ht="14" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="14" spans="1:8">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -1569,22 +1665,25 @@
         <v>520111001</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E11" s="10">
         <v>7458.02</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="28" spans="1:7">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:8">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -1592,22 +1691,25 @@
         <v>522424001</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E12" s="10">
         <v>5327.54</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="28" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" ht="28" spans="1:8">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -1615,22 +1717,25 @@
         <v>522224001</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E13" s="10">
         <v>9273.31</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:8">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -1638,22 +1743,25 @@
         <v>522727001</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E14" s="10">
         <v>3471.8</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:8">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1661,22 +1769,25 @@
         <v>522326001</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E15" s="10">
         <v>30876.12</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" ht="41.75" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="41.75" spans="1:8">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1684,19 +1795,22 @@
         <v>522401001</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E16" s="12">
         <v>13405.48</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1709,18 +1823,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="9.33035714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,22 +1842,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1756,7 +1873,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" ht="41" spans="1:8">
+    <row r="3" ht="41" spans="1:9">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1764,10 +1881,10 @@
         <v>522323001</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E3" s="4">
         <v>600</v>
@@ -1779,10 +1896,13 @@
         <v>280</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" ht="41" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="41" spans="1:9">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1790,10 +1910,10 @@
         <v>522222001</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E4" s="4">
         <v>500</v>
@@ -1805,10 +1925,13 @@
         <v>200</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" ht="55" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" ht="55" spans="1:9">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1816,10 +1939,10 @@
         <v>522722001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4">
         <v>2500</v>
@@ -1831,10 +1954,13 @@
         <v>1000</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" ht="55" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" ht="55" spans="1:9">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1842,10 +1968,10 @@
         <v>522722002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -1857,10 +1983,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" ht="14" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" ht="14" spans="1:9">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1868,7 +1997,7 @@
         <v>522401002</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6">
@@ -1881,10 +2010,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" ht="14" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" ht="14" spans="1:9">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1892,7 +2024,7 @@
         <v>522426001</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
@@ -1905,11 +2037,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>58</v>
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -1918,6 +2053,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/public/监测点信息.xlsx
+++ b/public/监测点信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12080"/>
+    <workbookView windowWidth="28060" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="入侵" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>序号</t>
   </si>
@@ -306,6 +306,9 @@
     <t>纳雍(猕猴桃)</t>
   </si>
   <si>
+    <t>纳雍（云贵水韭）</t>
+  </si>
+  <si>
     <t>云贵水韭</t>
   </si>
   <si>
@@ -317,10 +320,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -357,7 +360,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,28 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -401,6 +427,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -409,10 +473,32 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -423,89 +509,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -516,19 +519,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,163 +675,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,6 +774,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -786,25 +816,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -836,34 +857,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -873,148 +876,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1385,7 +1388,7 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1393,8 +1396,8 @@
   <cols>
     <col min="1" max="1" width="4.66071428571429" customWidth="1"/>
     <col min="2" max="2" width="8.33035714285714" customWidth="1"/>
-    <col min="4" max="4" width="28.2232142857143" customWidth="1"/>
-    <col min="7" max="7" width="9.66071428571429" customWidth="1"/>
+    <col min="4" max="4" width="31.9821428571429" customWidth="1"/>
+    <col min="7" max="7" width="22.7678571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.75" spans="1:8">
@@ -1825,13 +1828,15 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="9.33035714285714" customWidth="1"/>
+    <col min="3" max="3" width="30.0535714285714" customWidth="1"/>
+    <col min="4" max="4" width="19.4821428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1960,7 +1965,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" ht="55" spans="1:9">
+    <row r="6" ht="28" spans="1:9">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1999,7 +2004,9 @@
       <c r="C7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="6">
         <v>0</v>
       </c>
@@ -2026,7 +2033,9 @@
       <c r="C8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="E8" s="6">
         <v>0</v>
       </c>
@@ -2037,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
